--- a/Chapter-1/mmsp-industry-n-conference-list.xlsx
+++ b/Chapter-1/mmsp-industry-n-conference-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ntpu-ce-mmsp-2023\Chapter-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{282CFC22-7B0E-4ADE-9D47-C83A99B686FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407BC43-88ED-4643-AEF7-555D1F189C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{176700CE-64BC-46D3-926C-D75FD81E9BC3}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>國外/國內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研討會名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>國外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>總部地點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +115,13 @@
   </si>
   <si>
     <t>Audio &amp; Acoustic Signal Processing</t>
+  </si>
+  <si>
+    <t>學術組織總部地點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York City</t>
   </si>
 </sst>
 </file>
@@ -489,7 +488,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -507,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -524,42 +523,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -573,14 +572,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
@@ -588,19 +587,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -608,22 +607,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
